--- a/data/trans_dic/P1438_2023-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P1438_2023-Clase-trans_dic.xlsx
@@ -564,10 +564,10 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>0.03494567638610914</v>
+        <v>0.03494567638610915</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0.0553764978497007</v>
+        <v>0.05537649784970069</v>
       </c>
       <c r="E4" s="5" t="n">
         <v>0.04455754234876749</v>
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.022575742145681</v>
+        <v>0.0222244229187588</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.03898688553832474</v>
+        <v>0.03971243952904839</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.03383011739466978</v>
+        <v>0.0338781192295083</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.05514614704481232</v>
+        <v>0.05293353311779481</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.07804518607577235</v>
+        <v>0.0762984085407741</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.05761088765042498</v>
+        <v>0.05744358005183541</v>
       </c>
     </row>
     <row r="7">
@@ -622,10 +622,10 @@
         <v>0.02163547717616117</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.05319770951137494</v>
+        <v>0.05319770951137493</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.03634615311430926</v>
+        <v>0.03634615311430924</v>
       </c>
     </row>
     <row r="8">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.01300870595640572</v>
+        <v>0.01280919186779617</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.03890450712491486</v>
+        <v>0.03727923313849051</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.02713965620750518</v>
+        <v>0.02711509798257125</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.03632303231565532</v>
+        <v>0.03380633640405051</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.07198214130981155</v>
+        <v>0.07199283892144306</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.04750515872370584</v>
+        <v>0.04720970582288726</v>
       </c>
     </row>
     <row r="10">
@@ -674,7 +674,7 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>0.06487137539891595</v>
+        <v>0.06487137539891598</v>
       </c>
       <c r="D10" s="5" t="n">
         <v>0.1053319436350494</v>
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.04351824581303311</v>
+        <v>0.04530994790695177</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.07517526659279093</v>
+        <v>0.07549664251343421</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.06036240995766769</v>
+        <v>0.06142674713509638</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.08846933238305631</v>
+        <v>0.0906832478540054</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1412796614917884</v>
+        <v>0.1424063631337643</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.09635993760729035</v>
+        <v>0.09738426073398834</v>
       </c>
     </row>
     <row r="13">
@@ -729,7 +729,7 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>0.05863812299569846</v>
+        <v>0.05863812299569844</v>
       </c>
       <c r="D13" s="5" t="n">
         <v>0.07283634452953457</v>
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.04737387155829366</v>
+        <v>0.04716675500732736</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.05918013456122049</v>
+        <v>0.05930843111611834</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.05634850183490342</v>
+        <v>0.05549631533199531</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.07412312875055746</v>
+        <v>0.07294993501490959</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.08753856382054985</v>
+        <v>0.08801035604025256</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.07623061773868982</v>
+        <v>0.07530902987028934</v>
       </c>
     </row>
     <row r="16">
@@ -784,7 +784,7 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>0.05669892537302931</v>
+        <v>0.05669892537302929</v>
       </c>
       <c r="D16" s="5" t="n">
         <v>0.1269530722920955</v>
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.04161051290853651</v>
+        <v>0.04084615128075021</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.1086027499965515</v>
+        <v>0.1102865382779004</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.08669643555708668</v>
+        <v>0.08592563745498197</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.07998623675964436</v>
+        <v>0.07719965489240832</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.1447278237429652</v>
+        <v>0.1450060708274458</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1118033563988867</v>
+        <v>0.1120381463806606</v>
       </c>
     </row>
     <row r="19">
@@ -842,7 +842,7 @@
         <v>0.005134643163479589</v>
       </c>
       <c r="D19" s="5" t="n">
-        <v>0.08776438826176425</v>
+        <v>0.08776438826176426</v>
       </c>
       <c r="E19" s="5" t="n">
         <v>0.06962815988443304</v>
@@ -859,10 +859,10 @@
         <v>0</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.07330886696690853</v>
+        <v>0.07461383631091513</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.05824787951812841</v>
+        <v>0.05801769854275465</v>
       </c>
     </row>
     <row r="21">
@@ -873,13 +873,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.01745157153752636</v>
+        <v>0.01849591482682272</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.1032487486033147</v>
+        <v>0.1076956286583726</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.08254383528628903</v>
+        <v>0.08275706412721585</v>
       </c>
     </row>
     <row r="22">
@@ -911,13 +911,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.04045486727787403</v>
+        <v>0.04009949446084663</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.07898455690825321</v>
+        <v>0.07865346711590704</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.06117340945399273</v>
+        <v>0.06207949479277314</v>
       </c>
     </row>
     <row r="24">
@@ -928,13 +928,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.05425160117688493</v>
+        <v>0.05341845088984561</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.09262078784256364</v>
+        <v>0.09301904970880708</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.07096489161736746</v>
+        <v>0.07154847146185574</v>
       </c>
     </row>
     <row r="25">
@@ -1078,13 +1078,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>12411</v>
+        <v>12218</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>19042</v>
+        <v>19396</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>35121</v>
+        <v>35171</v>
       </c>
     </row>
     <row r="7">
@@ -1095,13 +1095,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>30316</v>
+        <v>29100</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>38118</v>
+        <v>37265</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>59809</v>
+        <v>59636</v>
       </c>
     </row>
     <row r="8">
@@ -1150,13 +1150,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>6286</v>
+        <v>6190</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>16411</v>
+        <v>15725</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>24562</v>
+        <v>24540</v>
       </c>
     </row>
     <row r="11">
@@ -1167,13 +1167,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>17552</v>
+        <v>16336</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>30364</v>
+        <v>30368</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>42994</v>
+        <v>42726</v>
       </c>
     </row>
     <row r="12">
@@ -1222,13 +1222,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>20486</v>
+        <v>21329</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>14095</v>
+        <v>14155</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>39733</v>
+        <v>40434</v>
       </c>
     </row>
     <row r="15">
@@ -1239,13 +1239,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>41646</v>
+        <v>42689</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>26490</v>
+        <v>26701</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>63428</v>
+        <v>64102</v>
       </c>
     </row>
     <row r="16">
@@ -1294,13 +1294,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>53573</v>
+        <v>53338</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>50967</v>
+        <v>51077</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>112249</v>
+        <v>110552</v>
       </c>
     </row>
     <row r="19">
@@ -1311,13 +1311,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>83822</v>
+        <v>82495</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>75389</v>
+        <v>75795</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>151856</v>
+        <v>150020</v>
       </c>
     </row>
     <row r="20">
@@ -1366,13 +1366,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>23592</v>
+        <v>23159</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>90154</v>
+        <v>91552</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>121124</v>
+        <v>120047</v>
       </c>
     </row>
     <row r="23">
@@ -1383,13 +1383,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>45350</v>
+        <v>43770</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>120142</v>
+        <v>120373</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>156201</v>
+        <v>156529</v>
       </c>
     </row>
     <row r="24">
@@ -1441,10 +1441,10 @@
         <v>0</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>61843</v>
+        <v>62944</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>62956</v>
+        <v>62707</v>
       </c>
     </row>
     <row r="27">
@@ -1455,13 +1455,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>4140</v>
+        <v>4388</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>87100</v>
+        <v>90852</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>89215</v>
+        <v>89446</v>
       </c>
     </row>
     <row r="28">
@@ -1510,13 +1510,13 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>139114</v>
+        <v>137892</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>286925</v>
+        <v>285722</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>432583</v>
+        <v>438990</v>
       </c>
     </row>
     <row r="31">
@@ -1527,13 +1527,13 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>186558</v>
+        <v>183693</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>336460</v>
+        <v>337907</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>501822</v>
+        <v>505949</v>
       </c>
     </row>
     <row r="32">
